--- a/medicine/Mort/Chapelle_Schönborn/Chapelle_Schönborn.xlsx
+++ b/medicine/Mort/Chapelle_Schönborn/Chapelle_Schönborn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chapelle_Sch%C3%B6nborn</t>
+          <t>Chapelle_Schönborn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chapelle Schönborn (Schönbornkapelle) est une nécropole de la famille Schönborn. Elle se trouve au bout du transept nord de la cathédrale de Wurtzbourg en Bavière.
 La chapelle est commandée par le prince-évêque Jean-Philippe-François de Schönborn à l'architecte Maximilian von Welsch. Les travaux débutent en 1721 et en 1723 Balthasar Neumann participe au projet. La structure est prête en 1724. Johann Lukas von Hildebrandt participe à certaines modifications. La chapelle est consacrée en 1736. 
